--- a/application/controllers/excel-templates/vendor_to_around_invoices.xlsx
+++ b/application/controllers/excel-templates/vendor_to_around_invoices.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -25,9 +33,6 @@
     <t>Period: {meta:sd} TO {meta:ed}</t>
   </si>
   <si>
-    <t>92C/1, Lane 7, East Azad Nagar,</t>
-  </si>
-  <si>
     <t>Bookings: {meta:count}</t>
   </si>
   <si>
@@ -182,34 +187,46 @@
   </si>
   <si>
     <t>ICIC0001024</t>
+  </si>
+  <si>
+    <t>A-1/7a, A BLOCK, KRISHNA NAGAR,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <b/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -217,7 +234,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -232,6 +249,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -242,6 +260,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -250,6 +269,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -260,6 +280,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -268,6 +289,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -276,6 +298,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -286,6 +309,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -294,6 +318,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -304,6 +329,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -318,6 +344,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -330,6 +357,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -342,6 +370,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -354,6 +383,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -364,6 +394,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -372,6 +403,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -382,6 +414,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -394,6 +427,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -404,6 +438,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -416,6 +451,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -428,6 +464,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -438,6 +475,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -450,6 +488,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -464,6 +503,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -476,6 +516,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -490,6 +531,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -500,6 +542,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -514,6 +557,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -526,6 +570,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -538,6 +583,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -552,6 +598,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -564,6 +611,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -574,6 +622,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -588,6 +637,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -602,6 +652,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -614,223 +665,526 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="72">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="26" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="27" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="26" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="28" fillId="2" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="29" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="30" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="33" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="27" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="27" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -844,7 +1198,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -862,7 +1216,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
         <v>2</v>
@@ -880,10 +1234,10 @@
       <c r="K3" s="10"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -892,16 +1246,16 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -914,10 +1268,10 @@
       <c r="K5" s="10"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -930,10 +1284,10 @@
       <c r="K6" s="10"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -946,7 +1300,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -960,14 +1314,14 @@
       <c r="K8" s="10"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -978,12 +1332,12 @@
       <c r="K9" s="10"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -994,79 +1348,79 @@
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="E11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="F11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="G11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="H11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="I11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="J11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="K11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="L11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="F12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="G12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="H12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="I12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="J12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="K12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="L12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="30"/>
       <c r="C13" s="10"/>
@@ -1080,235 +1434,252 @@
       <c r="K13" s="10"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="55"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="34" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38" t="s">
+      <c r="J16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="39" t="s">
+      <c r="L16" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="42" t="s">
+      <c r="H17" s="36"/>
+      <c r="I17" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42" t="s">
+      <c r="J17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="K17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="L17" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="40" t="s">
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="71" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="14"/>
-      <c r="B18" s="43" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="J18" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46">
-        <v>0.3</v>
-      </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46">
-        <v>0.15</v>
-      </c>
-      <c r="J18" s="47">
-        <v>0.05</v>
-      </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="14"/>
-      <c r="B19" s="43" t="s">
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="42" t="s">
+      <c r="H19" s="36"/>
+      <c r="I19" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42" t="s">
+      <c r="J19" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="49"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="14"/>
-      <c r="B20" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="4"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53" t="s">
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="49"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="56"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="14"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="59"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="14"/>
-      <c r="B22" s="60" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="69"/>
+    </row>
+    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="61"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="14"/>
-      <c r="B23" s="50" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66"/>
+    </row>
+    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="63"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="64" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="62">
+        <v>102405500277</v>
+      </c>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="63"/>
+    </row>
+    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="65">
-        <v>1.02405500277E11</v>
-      </c>
-      <c r="L24" s="66"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="64" t="s">
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="63"/>
+    </row>
+    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="66"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="14"/>
-      <c r="B26" s="67" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="70"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B26:D26"/>
@@ -1319,7 +1690,13 @@
     <mergeCell ref="E24:L24"/>
     <mergeCell ref="E23:L23"/>
     <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/application/controllers/excel-templates/vendor_to_around_invoices.xlsx
+++ b/application/controllers/excel-templates/vendor_to_around_invoices.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99ED0AC-9A5E-4E85-9007-B1AFCD3A8BBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,13 +190,13 @@
     <t>ICIC0001024</t>
   </si>
   <si>
-    <t>A-1/7a, A BLOCK, KRISHNA NAGAR,</t>
+    <t>A-1/7, F/F A BLOCK, KRISHNA NAGAR,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1175,16 +1176,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1198,7 +1199,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1216,7 +1217,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
         <v>2</v>
@@ -1234,7 +1235,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>56</v>
@@ -1252,7 +1253,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="9" t="s">
         <v>5</v>
@@ -1268,7 +1269,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
         <v>6</v>
@@ -1284,7 +1285,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
         <v>7</v>
@@ -1300,7 +1301,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -1314,7 +1315,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="15" t="s">
         <v>8</v>
@@ -1332,7 +1333,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
@@ -1348,7 +1349,7 @@
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="23" t="s">
         <v>11</v>
@@ -1384,7 +1385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="27" t="s">
         <v>22</v>
@@ -1420,7 +1421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="30"/>
       <c r="C13" s="10"/>
@@ -1434,7 +1435,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="53" t="s">
         <v>33</v>
@@ -1450,7 +1451,7 @@
       <c r="K14" s="54"/>
       <c r="L14" s="55"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="50" t="s">
         <v>34</v>
@@ -1466,7 +1467,7 @@
       <c r="K15" s="51"/>
       <c r="L15" s="52"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -1490,7 +1491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -1514,7 +1515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="71" t="s">
         <v>42</v>
@@ -1536,7 +1537,7 @@
       <c r="K18" s="40"/>
       <c r="L18" s="41"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="71" t="s">
         <v>43</v>
@@ -1558,7 +1559,7 @@
       <c r="K19" s="40"/>
       <c r="L19" s="41"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="70" t="s">
         <v>47</v>
@@ -1576,7 +1577,7 @@
       <c r="K20" s="45"/>
       <c r="L20" s="46"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="47"/>
       <c r="C21" s="48"/>
@@ -1590,7 +1591,7 @@
       <c r="K21" s="48"/>
       <c r="L21" s="49"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="67" t="s">
         <v>49</v>
@@ -1606,7 +1607,7 @@
       <c r="K22" s="68"/>
       <c r="L22" s="69"/>
     </row>
-    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="70" t="s">
         <v>50</v>
@@ -1624,7 +1625,7 @@
       <c r="K23" s="65"/>
       <c r="L23" s="66"/>
     </row>
-    <row r="24" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="58" t="s">
         <v>51</v>
@@ -1642,7 +1643,7 @@
       <c r="K24" s="59"/>
       <c r="L24" s="63"/>
     </row>
-    <row r="25" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="58" t="s">
         <v>52</v>
@@ -1660,7 +1661,7 @@
       <c r="K25" s="59"/>
       <c r="L25" s="63"/>
     </row>
-    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="56" t="s">
         <v>54</v>
